--- a/src/Sprint 2/00_FeatureListe.xlsx
+++ b/src/Sprint 2/00_FeatureListe.xlsx
@@ -85,34 +85,34 @@
     <t>hour</t>
   </si>
   <si>
-    <t>stündlich gemittelte CO-Konzentration</t>
-  </si>
-  <si>
-    <t>stündlich gemittelte Sensorreaktion (nominell auf CO ausgerichtet) (Zinnoxid)</t>
-  </si>
-  <si>
-    <t>stündlich gemittelte Gesamtkonzentration an nicht-metanischem Kohlenwasserstoff</t>
-  </si>
-  <si>
-    <t>stündlich gemittelte Benzolkonzentration</t>
-  </si>
-  <si>
-    <t>stündlich gemittelte Sensorreaktion (nominell auf NMHC ausgerichtet) (Titandioxid)</t>
-  </si>
-  <si>
-    <t>Echte stündlich gemittelte NOx-Konzentration</t>
-  </si>
-  <si>
-    <t>stündlich gemitteltes Sensoransprechverhalten (nominell auf NOx ausgerichtet)</t>
-  </si>
-  <si>
-    <t>stündlich gemittelte NO2-Konzentration</t>
-  </si>
-  <si>
-    <t>stündlich gemittelte Sensorreaktion (nominell auf NO2 ausgerichtet) (Wolframoxid)</t>
-  </si>
-  <si>
-    <t>stündlich gemitteltes Sensoransprechverhalten (nominell O3-bezogen) (Indiumoxid)</t>
+    <t>stuendlich gemittelte CO-Konzentration</t>
+  </si>
+  <si>
+    <t>stuendlich gemittelte Sensorreaktion (nominell auf CO ausgerichtet) (Zinnoxid)</t>
+  </si>
+  <si>
+    <t>stuendlich gemittelte Gesamtkonzentration an nicht-metanischem Kohlenwasserstoff</t>
+  </si>
+  <si>
+    <t>stuendlich gemittelte Benzolkonzentration</t>
+  </si>
+  <si>
+    <t>stuendlich gemittelte Sensorreaktion (nominell auf NMHC ausgerichtet) (Titandioxid)</t>
+  </si>
+  <si>
+    <t>Echte stuendlich gemittelte NOx-Konzentration</t>
+  </si>
+  <si>
+    <t>stuendlich gemitteltes Sensoransprechverhalten (nominell auf NOx ausgerichtet)</t>
+  </si>
+  <si>
+    <t>stuendlich gemittelte NO2-Konzentration</t>
+  </si>
+  <si>
+    <t>stuendlich gemittelte Sensorreaktion (nominell auf NO2 ausgerichtet) (Wolframoxid)</t>
+  </si>
+  <si>
+    <t>stuendlich gemitteltes Sensoransprechverhalten (nominell O3-bezogen) (Indiumoxid)</t>
   </si>
   <si>
     <t>Temperatur</t>
